--- a/Materiale Extra/interface agreement.xlsx
+++ b/Materiale Extra/interface agreement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\Progetto_IoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo Simone\Documents\GitHub\Battery_Charger_Smart\Materiale Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F1A034-4C99-4DC3-AAE5-D04DFA73F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7ED0D4-D457-4024-9F9C-7D82076043BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>photon</t>
   </si>
   <si>
-    <t>Battery/IoT/project/UserID/1/sensor/photono</t>
-  </si>
-  <si>
     <t>From sensor</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
   </si>
   <si>
     <t>MICHELE -DockerFile</t>
+  </si>
+  <si>
+    <t>Battery/IoT/project/UserID/1/sensor/photon</t>
   </si>
 </sst>
 </file>
@@ -916,10 +916,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -928,18 +928,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -971,8 +971,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1204,30 +1204,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>76</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1241,11 +1241,11 @@
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>114</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>116</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>118</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1322,16 +1322,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="132" x14ac:dyDescent="0.3">
@@ -1401,12 +1401,12 @@
         <v>24</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="120.6" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>32</v>
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="132.6" x14ac:dyDescent="0.3">
@@ -1435,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
@@ -1452,15 +1452,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>29</v>
@@ -1469,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.3">
@@ -1487,10 +1487,10 @@
         <v>30</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="120.6" x14ac:dyDescent="0.3">
@@ -1499,45 +1499,45 @@
         <v>31</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="120.6" x14ac:dyDescent="0.3">
       <c r="A21" s="59"/>
       <c r="B21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>136</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>1</v>
@@ -1592,128 +1592,128 @@
         <v>38</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>50</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>52</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>113</v>
-      </c>
       <c r="D34" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E35" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>1</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>1</v>
@@ -1734,43 +1734,43 @@
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>1</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>1</v>
@@ -1789,62 +1789,62 @@
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="C48" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="50" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>1</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>1</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>1</v>
@@ -1877,52 +1877,52 @@
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B56" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
